--- a/medicine/Psychotrope/Caveau_du_Soleil_d'or/Caveau_du_Soleil_d'or.xlsx
+++ b/medicine/Psychotrope/Caveau_du_Soleil_d'or/Caveau_du_Soleil_d'or.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caveau_du_Soleil_d%27or</t>
+          <t>Caveau_du_Soleil_d'or</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Caveau du Soleil d’or est un ancien café parisien, lieu de rencontre d’artistes vers 1903. Aujourd’hui appelé « Le Départ Saint-Michel », il est situé au 1 place Saint-Michel, dans le 5e arrondissement de Paris. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caveau_du_Soleil_d%27or</t>
+          <t>Caveau_du_Soleil_d'or</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est dans le sous-sol de ce café que se tenaient vers 1903 les soirées de La Plume, soirées littéraires et artistiques bimensuelles organisées par la revue La Plume fondée par Léon Deschamps. Ces soirées privées, sous l'intitulé « soirs de la Plume », furent initiées tous les samedi à partir du 7 septembre 1889, par Léon Maillard et Deschamps au café de Fleurus, dans la rue du même nom[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est dans le sous-sol de ce café que se tenaient vers 1903 les soirées de La Plume, soirées littéraires et artistiques bimensuelles organisées par la revue La Plume fondée par Léon Deschamps. Ces soirées privées, sous l'intitulé « soirs de la Plume », furent initiées tous les samedi à partir du 7 septembre 1889, par Léon Maillard et Deschamps au café de Fleurus, dans la rue du même nom.
 Les trois poètes Guillaume Apollinaire, Nicolas Deniker, André Salmon et l’écrivain Alfred Jarry s’y rencontrent à l'occasion des soirées de La Plume. Ce sont les anciens du symbolisme qui détiennent le pouvoir de légitimer les nouveaux.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caveau_du_Soleil_d%27or</t>
+          <t>Caveau_du_Soleil_d'or</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Personnalités ayant fréquenté le Caveau du Soleil d'or et les soirées de La Plume</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Guillaume Apollinaire, poète français
 Nicolas Deniker, poète français
@@ -562,11 +578,11 @@
 Fagus, poète français
 Paul Masson, écrivain français
 Willy, journaliste, critique musical et romancier français
-Gustave Kahn[2], poète et critique d'art français
-Paul Fort[2], poète et dramaturge français
-Frédéric-Auguste Cazals[2], peintre, dessinateur, écrivain, poète et illustrateur français
-Jean Royère[2], décorateur français
-Mécislas Golberg[2], poète, dramaturge, critique d'art, journaliste et essayiste libertaire d'origine polonaise</t>
+Gustave Kahn, poète et critique d'art français
+Paul Fort, poète et dramaturge français
+Frédéric-Auguste Cazals, peintre, dessinateur, écrivain, poète et illustrateur français
+Jean Royère, décorateur français
+Mécislas Golberg, poète, dramaturge, critique d'art, journaliste et essayiste libertaire d'origine polonaise</t>
         </is>
       </c>
     </row>
